--- a/overhead/visualization/ros_shared.xlsx
+++ b/overhead/visualization/ros_shared.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\ros\Visualizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\hplf_benchmarks\overhead\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52063A87-F606-4836-8298-928CC9A8B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D40C8C-E3D2-4615-AF87-D3E0CF8EA8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="14775" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="274">
   <si>
     <t>Episode: 25</t>
   </si>
@@ -697,6 +697,156 @@
   </si>
   <si>
     <t>Overhead: 0.1145 seconds</t>
+  </si>
+  <si>
+    <t>5MB</t>
+  </si>
+  <si>
+    <t>Time taken: 12.9988 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0175 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.5191 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0203 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.0397 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0205 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.5601 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.0818 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0216 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.6007 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0190 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.1173 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0166 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.6346 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0173 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.1540 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0195 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.6752 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0212 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.1979 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0227 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.7204 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0225 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.2375 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0171 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.7549 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0174 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.2777 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0228 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.8001 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0224 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.3189 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0188 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.8395 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0206 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.3575 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0180 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.8754 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0179 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.3962 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0207 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.9140 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.4355 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0214 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.9533 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0178 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.4696 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.0164 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.9870 seconds</t>
   </si>
 </sst>
 </file>
@@ -1014,32 +1164,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1052,50 +1205,45 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>123</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1000162</v>
-      </c>
-      <c r="B6">
-        <v>10000164</v>
-      </c>
-      <c r="C6">
-        <v>25000164</v>
-      </c>
-      <c r="D6">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1108,50 +1256,45 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
       <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
       <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1000162</v>
-      </c>
-      <c r="B11">
-        <v>10000164</v>
-      </c>
-      <c r="C11">
-        <v>25000164</v>
-      </c>
-      <c r="D11">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1164,50 +1307,45 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>126</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
       <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>127</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1000162</v>
-      </c>
-      <c r="B16">
-        <v>10000164</v>
-      </c>
-      <c r="C16">
-        <v>25000164</v>
-      </c>
-      <c r="D16">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1220,50 +1358,45 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
       <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1000162</v>
-      </c>
-      <c r="B21">
-        <v>10000164</v>
-      </c>
-      <c r="C21">
-        <v>25000164</v>
-      </c>
-      <c r="D21">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1276,50 +1409,45 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
       <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>130</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
       <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>131</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1000162</v>
-      </c>
-      <c r="B26">
-        <v>10000164</v>
-      </c>
-      <c r="C26">
-        <v>25000164</v>
-      </c>
-      <c r="D26">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1332,50 +1460,45 @@
       <c r="D27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
       <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>132</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1000162</v>
-      </c>
-      <c r="B31">
-        <v>10000164</v>
-      </c>
-      <c r="C31">
-        <v>25000164</v>
-      </c>
-      <c r="D31">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1388,50 +1511,45 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
       <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1000162</v>
-      </c>
-      <c r="B36">
-        <v>10000164</v>
-      </c>
-      <c r="C36">
-        <v>25000164</v>
-      </c>
-      <c r="D36">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1444,50 +1562,45 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
       <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>136</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
       <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1000162</v>
-      </c>
-      <c r="B41">
-        <v>10000164</v>
-      </c>
-      <c r="C41">
-        <v>25000164</v>
-      </c>
-      <c r="D41">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1500,50 +1613,45 @@
       <c r="D42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>138</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
       <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>139</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1000162</v>
-      </c>
-      <c r="B46">
-        <v>10000164</v>
-      </c>
-      <c r="C46">
-        <v>25000164</v>
-      </c>
-      <c r="D46">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1556,50 +1664,45 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>140</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>141</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1000162</v>
-      </c>
-      <c r="B51">
-        <v>10000164</v>
-      </c>
-      <c r="C51">
-        <v>25000164</v>
-      </c>
-      <c r="D51">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1612,50 +1715,45 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
       <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
       <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>143</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1000162</v>
-      </c>
-      <c r="B56">
-        <v>10000164</v>
-      </c>
-      <c r="C56">
-        <v>25000164</v>
-      </c>
-      <c r="D56">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1668,50 +1766,45 @@
       <c r="D57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
       <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" t="s">
         <v>52</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>144</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
       <c r="B59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" t="s">
         <v>53</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>145</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1000162</v>
-      </c>
-      <c r="B61">
-        <v>10000164</v>
-      </c>
-      <c r="C61">
-        <v>25000164</v>
-      </c>
-      <c r="D61">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1724,50 +1817,45 @@
       <c r="D62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
       <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
         <v>54</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>146</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
       <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
         <v>55</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>147</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1000162</v>
-      </c>
-      <c r="B66">
-        <v>10000164</v>
-      </c>
-      <c r="C66">
-        <v>25000164</v>
-      </c>
-      <c r="D66">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -1780,50 +1868,45 @@
       <c r="D67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
       <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
         <v>56</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>148</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
       <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
         <v>57</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>149</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1000162</v>
-      </c>
-      <c r="B71">
-        <v>10000164</v>
-      </c>
-      <c r="C71">
-        <v>25000164</v>
-      </c>
-      <c r="D71">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -1836,50 +1919,45 @@
       <c r="D72" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
       <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
         <v>58</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>150</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>105</v>
       </c>
       <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
         <v>59</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>151</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1000162</v>
-      </c>
-      <c r="B76">
-        <v>10000164</v>
-      </c>
-      <c r="C76">
-        <v>25000164</v>
-      </c>
-      <c r="D76">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1892,50 +1970,45 @@
       <c r="D77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>106</v>
       </c>
       <c r="B78" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" t="s">
         <v>60</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>152</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>107</v>
       </c>
       <c r="B79" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" t="s">
         <v>61</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>153</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1000162</v>
-      </c>
-      <c r="B81">
-        <v>10000164</v>
-      </c>
-      <c r="C81">
-        <v>25000164</v>
-      </c>
-      <c r="D81">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -1948,50 +2021,45 @@
       <c r="D82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
       <c r="B83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" t="s">
         <v>62</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>154</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
       <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
         <v>63</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>155</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1000162</v>
-      </c>
-      <c r="B86">
-        <v>10000164</v>
-      </c>
-      <c r="C86">
-        <v>25000164</v>
-      </c>
-      <c r="D86">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2004,50 +2072,45 @@
       <c r="D87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" t="s">
         <v>64</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>156</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
         <v>37</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>157</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1000162</v>
-      </c>
-      <c r="B91">
-        <v>10000164</v>
-      </c>
-      <c r="C91">
-        <v>25000164</v>
-      </c>
-      <c r="D91">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2060,50 +2123,45 @@
       <c r="D92" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>111</v>
       </c>
       <c r="B93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" t="s">
         <v>65</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>158</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
       <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
         <v>66</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>159</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1000162</v>
-      </c>
-      <c r="B96">
-        <v>10000164</v>
-      </c>
-      <c r="C96">
-        <v>25000164</v>
-      </c>
-      <c r="D96">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2116,50 +2174,45 @@
       <c r="D97" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
       <c r="B98" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" t="s">
         <v>67</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>160</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
       <c r="B99" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" t="s">
         <v>68</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>161</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1000162</v>
-      </c>
-      <c r="B101">
-        <v>10000164</v>
-      </c>
-      <c r="C101">
-        <v>25000164</v>
-      </c>
-      <c r="D101">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2172,50 +2225,45 @@
       <c r="D102" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
       <c r="B103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" t="s">
         <v>69</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>162</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
       <c r="B104" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
         <v>70</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>163</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1000162</v>
-      </c>
-      <c r="B106">
-        <v>10000164</v>
-      </c>
-      <c r="C106">
-        <v>25000164</v>
-      </c>
-      <c r="D106">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -2228,50 +2276,45 @@
       <c r="D107" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
       <c r="B108" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" t="s">
         <v>71</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>164</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
       <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="s">
         <v>72</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>165</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1000162</v>
-      </c>
-      <c r="B111">
-        <v>10000164</v>
-      </c>
-      <c r="C111">
-        <v>25000164</v>
-      </c>
-      <c r="D111">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -2284,50 +2327,45 @@
       <c r="D112" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>117</v>
       </c>
       <c r="B113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" t="s">
         <v>73</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>166</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" t="s">
         <v>74</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>141</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1000162</v>
-      </c>
-      <c r="B116">
-        <v>10000164</v>
-      </c>
-      <c r="C116">
-        <v>25000164</v>
-      </c>
-      <c r="D116">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -2340,50 +2378,45 @@
       <c r="D117" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" t="s">
         <v>75</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>167</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
       <c r="B119" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" t="s">
         <v>51</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>168</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1000162</v>
-      </c>
-      <c r="B121">
-        <v>10000164</v>
-      </c>
-      <c r="C121">
-        <v>25000164</v>
-      </c>
-      <c r="D121">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2396,50 +2429,45 @@
       <c r="D122" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>119</v>
       </c>
       <c r="B123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" t="s">
         <v>76</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>169</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>107</v>
       </c>
       <c r="B124" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" t="s">
         <v>39</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>170</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1000162</v>
-      </c>
-      <c r="B126">
-        <v>10000164</v>
-      </c>
-      <c r="C126">
-        <v>25000164</v>
-      </c>
-      <c r="D126">
-        <v>50000164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -2452,32 +2480,41 @@
       <c r="D127" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>120</v>
       </c>
       <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" t="s">
         <v>77</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>171</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>121</v>
       </c>
       <c r="B129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" t="s">
         <v>31</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>172</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>223</v>
       </c>
     </row>
